--- a/xl2json/input/buff.xlsx
+++ b/xl2json/input/buff.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#Conf_Buff" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="#Conf_One" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,18 @@
   </si>
   <si>
     <t>//sDelfunc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aTextflow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"text":"    年仅54的臧天朔在9月28日凌晨去世了，据媒体求证，臧天朔去年患上了","style":{"textColor":0x062C48,"size":20}},{"text":"肝癌","style":{"textColor":0x0029FF,"size":20,"href":"event:41008_,41008_12003,41008_71014","underline":1}},{"text":"，一直治疗的不错，今年病情也得到了好转，不过最近病情却突然恶化，急转直下，最终离开了我们，也离开了他一生都牵挂的“朋友”。","style":{"textColor":0x062C48,"size":20}}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,8 +476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -589,14 +601,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xl2json/input/buff.xlsx
+++ b/xl2json/input/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="#Conf_Buff" sheetId="1" r:id="rId1"/>
@@ -15,16 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>iDuration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>iDotnum</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +106,10 @@
   </si>
   <si>
     <t>1,2,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fDuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -474,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K5"/>
+  <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -494,36 +494,36 @@
   <sheetData>
     <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="H1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>0</v>
@@ -534,28 +534,28 @@
         <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="b">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.15">
@@ -563,32 +563,63 @@
         <v>201</v>
       </c>
       <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
         <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20</v>
+        <f>G3+0.08</f>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="3" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
+      <c r="B5">
+        <v>301</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <f>G4+0.08</f>
+        <v>0.36000000000000004</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -603,7 +634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -614,7 +645,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
@@ -622,12 +653,12 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">

--- a/xl2json/input/buff.xlsx
+++ b/xl2json/input/buff.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="#Conf_Buff" sheetId="1" r:id="rId1"/>
     <sheet name="#Conf_One" sheetId="2" r:id="rId2"/>
+    <sheet name="#Conf_Row" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -111,6 +112,28 @@
   <si>
     <t>fDuration</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iValue2</t>
+  </si>
+  <si>
+    <t>iValue3</t>
+  </si>
+  <si>
+    <t>iValue4</t>
+  </si>
+  <si>
+    <t>iValue5</t>
+  </si>
+  <si>
+    <t>iValue6</t>
+  </si>
+  <si>
+    <t>iValue7</t>
   </si>
 </sst>
 </file>
@@ -476,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -635,7 +658,7 @@
   <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -670,4 +693,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>